--- a/明发云庭装修费用明细v1.1.xlsx
+++ b/明发云庭装修费用明细v1.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="20010" windowHeight="7260"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>装修费用明细</t>
   </si>
@@ -528,11 +528,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主卧移门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧移门</t>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧衣柜移门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧衣柜移门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +911,72 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,9 +1013,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,70 +1022,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,13 +1304,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="18" customHeight="1"/>
@@ -1310,18 +1327,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -1356,7 +1373,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -1381,12 +1398,12 @@
       <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="31">
         <v>2880</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
@@ -1399,10 +1416,10 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="41"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
@@ -1415,19 +1432,19 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="41"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="33">
         <v>4500</v>
       </c>
       <c r="E6" s="11"/>
@@ -1435,24 +1452,24 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1467,10 +1484,10 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="21" t="s">
         <v>116</v>
       </c>
@@ -1485,10 +1502,10 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21" t="s">
         <v>117</v>
       </c>
@@ -1503,10 +1520,10 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1521,10 +1538,10 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="21" t="s">
         <v>120</v>
       </c>
@@ -1539,10 +1556,10 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
@@ -1555,10 +1572,10 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
@@ -1573,10 +1590,10 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1591,10 +1608,10 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
@@ -1609,10 +1626,10 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
@@ -1625,10 +1642,10 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1645,10 +1662,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
@@ -1663,10 +1680,10 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="43"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="21" t="s">
         <v>26</v>
       </c>
@@ -1681,10 +1698,10 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -1699,10 +1716,10 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="43"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="57"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -1717,10 +1734,10 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="43"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1735,10 +1752,10 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="44"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1">
-      <c r="A24" s="51"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
@@ -1751,10 +1768,10 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="44"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1769,15 +1786,15 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="45"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="58">
+      <c r="D26" s="33">
         <v>2800</v>
       </c>
       <c r="E26" s="11"/>
@@ -1785,45 +1802,45 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="59"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="45"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="60"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="58">
+      <c r="D29" s="33">
         <v>4000</v>
       </c>
       <c r="E29" s="11"/>
@@ -1831,38 +1848,38 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="59"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="60"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="37"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="21" t="s">
         <v>129</v>
       </c>
@@ -1875,10 +1892,12 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1">
-      <c r="A33" s="55"/>
+      <c r="A33" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="B33" s="21" t="s">
         <v>44</v>
       </c>
@@ -1891,10 +1910,10 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="36"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="21" t="s">
         <v>45</v>
       </c>
@@ -1907,10 +1926,10 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="36"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1">
-      <c r="A35" s="55"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="21" t="s">
         <v>46</v>
       </c>
@@ -1925,10 +1944,10 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="36"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -1943,10 +1962,10 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>65</v>
       </c>
@@ -1957,10 +1976,10 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="67" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -1975,15 +1994,15 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="39"/>
+      <c r="J38" s="61"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="58">
+      <c r="D39" s="33">
         <v>5000</v>
       </c>
       <c r="E39" s="11"/>
@@ -1991,24 +2010,24 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="39"/>
+      <c r="J39" s="61"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
-      <c r="A40" s="48"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="60"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="39"/>
+      <c r="J40" s="61"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1">
-      <c r="A41" s="48"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="21" t="s">
         <v>70</v>
       </c>
@@ -2021,10 +2040,10 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="39"/>
+      <c r="J41" s="61"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
-      <c r="A42" s="48"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="21" t="s">
         <v>71</v>
       </c>
@@ -2037,46 +2056,46 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="61"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="49" t="s">
-        <v>33</v>
-      </c>
+      <c r="A43" s="69"/>
       <c r="B43" s="21" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50" t="s">
+        <v>33</v>
+      </c>
       <c r="B44" s="21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="40"/>
+      <c r="J44" s="62"/>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1">
-      <c r="A45" s="49"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11">
@@ -2087,28 +2106,28 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="62"/>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1">
-      <c r="A46" s="49"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="40"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1">
-      <c r="A47" s="49"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11">
@@ -2119,12 +2138,12 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="40"/>
+      <c r="J47" s="62"/>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1">
-      <c r="A48" s="49"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11">
@@ -2135,12 +2154,12 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="40"/>
+      <c r="J48" s="62"/>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1">
-      <c r="A49" s="49"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="11">
@@ -2151,134 +2170,132 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="40"/>
+      <c r="J49" s="62"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
-      <c r="A50" s="49"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="40"/>
+      <c r="J50" s="62"/>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="A51" s="50"/>
       <c r="B51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C51" s="10"/>
       <c r="D51" s="11">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1">
-      <c r="A52" s="15" t="s">
-        <v>35</v>
+      <c r="A52" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="2"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1">
-      <c r="A53" s="54" t="s">
-        <v>47</v>
+      <c r="A53" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="58">
-        <v>5000</v>
+        <v>48</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="11">
+        <v>10000</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="33"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
-      <c r="A54" s="54"/>
+      <c r="A54" s="46" t="s">
+        <v>47</v>
+      </c>
       <c r="B54" s="21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="59"/>
+      <c r="D54" s="33">
+        <v>5000</v>
+      </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="33"/>
+      <c r="J54" s="55"/>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1">
-      <c r="A55" s="54"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="21" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="60"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="33"/>
+      <c r="J55" s="55"/>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1">
-      <c r="A56" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="A56" s="46"/>
       <c r="B56" s="21" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="11">
-        <v>2500</v>
-      </c>
+      <c r="D56" s="35"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
-      <c r="A57" s="17" t="s">
-        <v>30</v>
+      <c r="A57" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11">
@@ -2289,81 +2306,85 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>39</v>
+      <c r="A58" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>105</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="11">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1">
-      <c r="A59" s="64" t="s">
-        <v>19</v>
+      <c r="A59" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="58">
-        <v>5000</v>
+        <v>63</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="11">
+        <v>6000</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="34"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="B60" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="59"/>
+      <c r="D60" s="33">
+        <v>5000</v>
+      </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="34"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="21" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="59"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="28"/>
+      <c r="J61" s="56"/>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
-      <c r="A62" s="65"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="60"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -2372,401 +2393,415 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1">
-      <c r="A63" s="50" t="s">
-        <v>98</v>
-      </c>
+      <c r="A63" s="41"/>
       <c r="B63" s="21" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="58">
-        <v>3000</v>
-      </c>
+      <c r="D63" s="35"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="29"/>
+      <c r="J63" s="28"/>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="22" t="s">
-        <v>52</v>
+      <c r="A64" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="59"/>
+      <c r="D64" s="33">
+        <v>3000</v>
+      </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="29"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
-      <c r="A65" s="50"/>
-      <c r="B65" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="59"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="29"/>
+      <c r="J65" s="51"/>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
-      <c r="A66" s="50"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="60"/>
+        <v>53</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="29"/>
-    </row>
-    <row r="67" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="46" t="s">
-        <v>61</v>
-      </c>
+      <c r="J66" s="51"/>
+    </row>
+    <row r="67" spans="1:10" ht="18" customHeight="1">
+      <c r="A67" s="42"/>
       <c r="B67" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="58">
-        <v>2500</v>
-      </c>
+      <c r="D67" s="35"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="51"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="46"/>
+      <c r="A68" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="B68" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="59"/>
+      <c r="D68" s="33">
+        <v>2500</v>
+      </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="57"/>
     </row>
     <row r="69" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="46"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="59"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="46"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="55" t="s">
-        <v>80</v>
-      </c>
+      <c r="A71" s="48"/>
       <c r="B71" s="21" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="58">
-        <v>45000</v>
-      </c>
+      <c r="D71" s="35"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="36"/>
+      <c r="J71" s="57"/>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="55"/>
+      <c r="A72" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="B72" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="59"/>
+        <v>81</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="33">
+        <v>45000</v>
+      </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="36"/>
+      <c r="J72" s="58"/>
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="55"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="59"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="36"/>
+      <c r="J73" s="58"/>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="55"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="59"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="36"/>
+      <c r="J74" s="58"/>
     </row>
     <row r="75" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="55"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="59"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="36"/>
-    </row>
-    <row r="76" spans="1:10" ht="18" customHeight="1">
-      <c r="A76" s="50" t="s">
-        <v>85</v>
-      </c>
+      <c r="J75" s="58"/>
+    </row>
+    <row r="76" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A76" s="36"/>
       <c r="B76" s="21" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="59"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="29"/>
+      <c r="J76" s="58"/>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1">
-      <c r="A77" s="50"/>
+      <c r="A77" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="B77" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="59"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="29"/>
+      <c r="J77" s="51"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1">
-      <c r="A78" s="50"/>
+      <c r="A78" s="42"/>
       <c r="B78" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="59"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="29"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1">
-      <c r="A79" s="50"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="59"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="29"/>
+      <c r="J79" s="51"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1">
-      <c r="A80" s="50"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="59"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="29"/>
+      <c r="J80" s="51"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1">
-      <c r="A81" s="50"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="59"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="29"/>
+      <c r="J81" s="51"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1">
-      <c r="A82" s="50"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="21" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="59"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="29"/>
+      <c r="J82" s="51"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1">
-      <c r="A83" s="50"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="21" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="59"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="29"/>
+      <c r="J83" s="51"/>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1">
-      <c r="A84" s="50"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="10"/>
-      <c r="D84" s="59"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="29"/>
+      <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1">
-      <c r="A85" s="50"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="10"/>
-      <c r="D85" s="60"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="29"/>
+      <c r="J85" s="51"/>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1">
+      <c r="A86" s="42"/>
+      <c r="B86" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C86" s="10"/>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="35"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="51"/>
+    </row>
+    <row r="87" spans="1:10" ht="18" customHeight="1">
+      <c r="C87" s="10"/>
+      <c r="D87" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E86" s="27">
-        <f>SUM(E3:E85)</f>
+      <c r="E87" s="27">
+        <f>SUM(E3:E86)</f>
         <v>500</v>
       </c>
-      <c r="F86" s="27"/>
+      <c r="F87" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="J77:J86"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="J44:J51"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J17"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A72:A76"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D71:D85"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="J76:J85"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J17"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D72:D86"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A77:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2791,7 +2826,7 @@
       <c r="C1">
         <v>24000</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="66" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2802,7 +2837,7 @@
       <c r="C2">
         <v>25000</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/明发云庭装修费用明细v1.1.xlsx
+++ b/明发云庭装修费用明细v1.1.xlsx
@@ -914,12 +914,96 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,9 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,88 +1031,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1307,10 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="18" customHeight="1"/>
@@ -1327,18 +1327,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -1398,12 +1398,12 @@
       <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="42">
         <v>2880</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
@@ -1416,10 +1416,10 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="31"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
@@ -1432,19 +1432,19 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="31"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="61">
         <v>4500</v>
       </c>
       <c r="E6" s="11"/>
@@ -1452,24 +1452,24 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="63"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1484,10 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="63"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="21" t="s">
         <v>116</v>
       </c>
@@ -1502,10 +1502,10 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="21" t="s">
         <v>117</v>
       </c>
@@ -1520,10 +1520,10 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="63"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1538,10 +1538,10 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="21" t="s">
         <v>120</v>
       </c>
@@ -1556,10 +1556,10 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="63"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
@@ -1572,10 +1572,10 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="63"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
@@ -1590,10 +1590,10 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="63"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
@@ -1608,10 +1608,10 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
@@ -1626,10 +1626,10 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
@@ -1642,10 +1642,10 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1662,10 +1662,10 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
@@ -1680,10 +1680,10 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="21" t="s">
         <v>26</v>
       </c>
@@ -1698,10 +1698,10 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="64"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="21" t="s">
         <v>23</v>
       </c>
@@ -1716,10 +1716,10 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1752,10 +1752,10 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
@@ -1768,10 +1768,10 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="65"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1786,15 +1786,15 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="47"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="33">
+      <c r="D26" s="61">
         <v>2800</v>
       </c>
       <c r="E26" s="11"/>
@@ -1802,45 +1802,45 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="47"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="55" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="33">
+      <c r="D29" s="61">
         <v>4000</v>
       </c>
       <c r="E29" s="11"/>
@@ -1848,38 +1848,38 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="59"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="59"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="59"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="21" t="s">
         <v>129</v>
       </c>
@@ -1892,10 +1892,10 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="59"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="58" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -1910,10 +1910,10 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="21" t="s">
         <v>45</v>
       </c>
@@ -1926,10 +1926,10 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="58"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="21" t="s">
         <v>46</v>
       </c>
@@ -1944,10 +1944,10 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="58"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -1962,10 +1962,10 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="60"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1">
-      <c r="A37" s="49"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>65</v>
       </c>
@@ -1976,10 +1976,10 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="60"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="50" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -1994,15 +1994,15 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="61"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1">
-      <c r="A39" s="68"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="33">
+      <c r="D39" s="61">
         <v>5000</v>
       </c>
       <c r="E39" s="11"/>
@@ -2010,24 +2010,24 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="61"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="35"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="61"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="21" t="s">
         <v>70</v>
       </c>
@@ -2040,10 +2040,10 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="61"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1">
-      <c r="A42" s="68"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="21" t="s">
         <v>71</v>
       </c>
@@ -2056,10 +2056,10 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="61"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="69"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="21" t="s">
         <v>133</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -2090,10 +2090,10 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="62"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1">
-      <c r="A45" s="50"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>78</v>
       </c>
@@ -2106,10 +2106,10 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="62"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1">
-      <c r="A46" s="50"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>79</v>
       </c>
@@ -2122,10 +2122,10 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="62"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1">
-      <c r="A47" s="50"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>73</v>
       </c>
@@ -2138,10 +2138,10 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="62"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1">
-      <c r="A48" s="50"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>74</v>
       </c>
@@ -2154,10 +2154,10 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="62"/>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1">
-      <c r="A49" s="50"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="62"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
-      <c r="A50" s="50"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>76</v>
       </c>
@@ -2186,10 +2186,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="62"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1">
-      <c r="A51" s="50"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="21" t="s">
         <v>77</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="62"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1">
       <c r="A52" s="14" t="s">
@@ -2245,14 +2245,14 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="56" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="33">
+      <c r="D54" s="61">
         <v>5000</v>
       </c>
       <c r="E54" s="11"/>
@@ -2260,35 +2260,35 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="34"/>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1">
-      <c r="A55" s="46"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="34"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1">
-      <c r="A56" s="46"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="35"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="34"/>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="16" t="s">
@@ -2347,14 +2347,14 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="33">
+      <c r="D60" s="61">
         <v>5000</v>
       </c>
       <c r="E60" s="11"/>
@@ -2362,29 +2362,29 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="56"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="56"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1">
-      <c r="A62" s="40"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="10"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -2393,12 +2393,12 @@
       <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1">
-      <c r="A63" s="41"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C63" s="10"/>
-      <c r="D63" s="35"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -2407,14 +2407,14 @@
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="10"/>
-      <c r="D64" s="33">
+      <c r="D64" s="61">
         <v>3000</v>
       </c>
       <c r="E64" s="11"/>
@@ -2422,59 +2422,59 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="51"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1">
-      <c r="A65" s="42"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="34"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="51"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1">
-      <c r="A66" s="42"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="12"/>
-      <c r="D66" s="34"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="35"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="10"/>
-      <c r="D68" s="33">
+      <c r="D68" s="61">
         <v>2500</v>
       </c>
       <c r="E68" s="11"/>
@@ -2482,59 +2482,59 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="57"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="48"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="34"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="57"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="48"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="34"/>
+      <c r="D70" s="62"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="57"/>
+      <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="48"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="35"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="57"/>
+      <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="58" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="33">
+      <c r="D72" s="61">
         <v>45000</v>
       </c>
       <c r="E72" s="11"/>
@@ -2542,205 +2542,205 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="58"/>
+      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="36"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="10"/>
-      <c r="D73" s="34"/>
+      <c r="D73" s="62"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="58"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="36"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="34"/>
+      <c r="D74" s="62"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="58"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="36"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="34"/>
+      <c r="D75" s="62"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="58"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="36"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="34"/>
+      <c r="D76" s="62"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="58"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="57" t="s">
         <v>85</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="34"/>
+      <c r="D77" s="62"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="51"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1">
-      <c r="A78" s="42"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="34"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="51"/>
+      <c r="J78" s="30"/>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1">
-      <c r="A79" s="42"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="34"/>
+      <c r="D79" s="62"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1">
-      <c r="A80" s="42"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="21" t="s">
         <v>89</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="34"/>
+      <c r="D80" s="62"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="51"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="1:10" ht="18" customHeight="1">
-      <c r="A81" s="42"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="34"/>
+      <c r="D81" s="62"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="51"/>
+      <c r="J81" s="30"/>
     </row>
     <row r="82" spans="1:10" ht="18" customHeight="1">
-      <c r="A82" s="42"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="34"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="51"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="1:10" ht="18" customHeight="1">
-      <c r="A83" s="42"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="34"/>
+      <c r="D83" s="62"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="51"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1">
-      <c r="A84" s="42"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="10"/>
-      <c r="D84" s="34"/>
+      <c r="D84" s="62"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="51"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="1:10" ht="18" customHeight="1">
-      <c r="A85" s="42"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="10"/>
-      <c r="D85" s="34"/>
+      <c r="D85" s="62"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="51"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="1:10" ht="18" customHeight="1">
-      <c r="A86" s="42"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="21" t="s">
         <v>94</v>
       </c>
       <c r="C86" s="10"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="63"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="51"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="1:10" ht="18" customHeight="1">
       <c r="C87" s="10"/>
@@ -2755,6 +2755,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D72:D86"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="J77:J86"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="J54:J56"/>
@@ -2771,33 +2798,6 @@
     <mergeCell ref="J6:J17"/>
     <mergeCell ref="J18:J22"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D72:D86"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A77:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2826,7 +2826,7 @@
       <c r="C1">
         <v>24000</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="69" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       <c r="C2">
         <v>25000</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
